--- a/Docs/Lab02/Lab02_BBT_TCs_Form (1).xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98552FF1-5FD1-4D18-8B2C-4724B7FF6388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E221712-0FE9-4D39-96B2-E2152ABACA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="121">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -263,9 +263,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Error message-? Compiler checked</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -426,12 +423,6 @@
     <t>interval</t>
   </si>
   <si>
-    <t>interval&gt;=1</t>
-  </si>
-  <si>
-    <t>interval&lt;1</t>
-  </si>
-  <si>
     <t>startDate&gt;=0</t>
   </si>
   <si>
@@ -459,9 +450,6 @@
     <t>5.04.2024, 15:01</t>
   </si>
   <si>
-    <t>array length</t>
-  </si>
-  <si>
     <t>01. TaskIO=[], length=0</t>
   </si>
   <si>
@@ -474,18 +462,6 @@
     <t>04. TaskIO=[], length=100000001</t>
   </si>
   <si>
-    <t>testBVA_1</t>
-  </si>
-  <si>
-    <t>testBVA_2</t>
-  </si>
-  <si>
-    <t>testBVA_3</t>
-  </si>
-  <si>
-    <t>testBVA_4</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -502,6 +478,86 @@
   </si>
   <si>
     <t>endDate</t>
+  </si>
+  <si>
+    <t>/**
+     * 
+     * @param task
+     */
+    @Override
+    public void add(Task task)</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>nu s-a adaugat</t>
+  </si>
+  <si>
+    <t>adaugat</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>interval&gt;=0</t>
+  </si>
+  <si>
+    <t>interval&lt;0</t>
+  </si>
+  <si>
+    <t>interval &gt;=0</t>
+  </si>
+  <si>
+    <t>startDate &gt;=0</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>array length apartine (0,1000000)</t>
+  </si>
+  <si>
+    <t>array length &gt;1000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">array length &lt;=0  </t>
+  </si>
+  <si>
+    <t>array length apartine (0,1000000]</t>
+  </si>
+  <si>
+    <t>05. TaskIO=[], length=999999</t>
+  </si>
+  <si>
+    <t>ArrayList</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>TaskIO=[Task=""],</t>
+  </si>
+  <si>
+    <t>array length apartine [0,1000000]</t>
+  </si>
+  <si>
+    <t>06. TaskIO=[], length=-1</t>
+  </si>
+  <si>
+    <t>Error message-?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message-? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TaskIO=[Task="" * 999999]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TaskIO=[Task="" * 1000000]</t>
   </si>
 </sst>
 </file>
@@ -736,7 +792,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1147,11 +1203,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1263,6 +1330,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1278,89 +1348,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1368,51 +1459,108 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1422,83 +1570,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1529,8 +1605,8 @@
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
@@ -1869,13 +1945,13 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:N24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" customWidth="1"/>
     <col min="9" max="9" width="32.88671875" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" customWidth="1"/>
     <col min="12" max="12" width="12.109375" customWidth="1"/>
@@ -1883,12 +1959,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53"/>
       <c r="H1" s="48" t="s">
         <v>1</v>
       </c>
@@ -1896,11 +1972,11 @@
       <c r="J1" s="48"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
@@ -1916,7 +1992,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J4" s="2">
         <v>235</v>
@@ -1927,7 +2003,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J5" s="2">
         <v>235</v>
@@ -1939,7 +2015,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J6" s="2">
         <v>235</v>
@@ -2034,9 +2110,11 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="129" t="s">
+        <v>96</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -2051,19 +2129,19 @@
     </row>
     <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C26" s="47"/>
@@ -2091,8 +2169,8 @@
                 <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>167640</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>160020</xdr:rowOff>
               </to>
@@ -2116,14 +2194,15 @@
   <dimension ref="B1:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:Q10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" customWidth="1"/>
     <col min="6" max="6" width="5.88671875" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
@@ -2137,43 +2216,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="B3" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="G5" s="76" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="G5" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
@@ -2188,47 +2267,47 @@
       <c r="E6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="77" t="s">
+      <c r="G6" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="63" t="s">
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="63"/>
+      <c r="Q6" s="79"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="69" t="s">
-        <v>82</v>
+      <c r="C7" s="55" t="s">
+        <v>104</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="62"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="78"/>
       <c r="I7" s="21" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L7" s="21" t="s">
         <v>28</v>
@@ -2236,110 +2315,110 @@
       <c r="M7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="60"/>
-      <c r="P7" s="59" t="s">
+      <c r="N7" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" s="76"/>
+      <c r="P7" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="60"/>
+      <c r="Q7" s="76"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="69"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G8" s="21">
         <v>1</v>
       </c>
-      <c r="H8" s="2">
-        <v>1</v>
+      <c r="H8" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="55">
+      <c r="N8" s="73">
         <v>0</v>
       </c>
-      <c r="O8" s="56"/>
-      <c r="P8" s="55">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="56"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q8" s="74"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="69" t="s">
-        <v>77</v>
+      <c r="C9" s="55" t="s">
+        <v>103</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="E9" s="4"/>
       <c r="G9" s="21">
         <v>2</v>
       </c>
-      <c r="H9" s="2">
-        <v>2</v>
+      <c r="H9" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="55">
+      <c r="N9" s="73">
         <v>-1</v>
       </c>
-      <c r="O9" s="56"/>
-      <c r="P9" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="56"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="74"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="G10" s="33">
         <v>3</v>
       </c>
-      <c r="H10" s="12">
-        <v>3</v>
+      <c r="H10" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
@@ -2347,8 +2426,8 @@
         <v>100</v>
       </c>
       <c r="O10" s="68"/>
-      <c r="P10" s="67">
-        <v>1</v>
+      <c r="P10" s="67" t="s">
+        <v>97</v>
       </c>
       <c r="Q10" s="68"/>
     </row>
@@ -2356,30 +2435,48 @@
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="G11" s="33">
         <v>4</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="12">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="12">
+        <v>-1</v>
+      </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="67"/>
+      <c r="N11" s="67">
+        <v>100</v>
+      </c>
       <c r="O11" s="68"/>
-      <c r="P11" s="67"/>
+      <c r="P11" s="67" t="s">
+        <v>98</v>
+      </c>
       <c r="Q11" s="68"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="G12" s="11">
         <v>5</v>
       </c>
@@ -2391,16 +2488,18 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="66"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="70"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="70"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="G13" s="11">
         <v>6</v>
       </c>
@@ -2410,16 +2509,16 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="66"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="70"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="71"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="G14" s="17">
@@ -2431,16 +2530,16 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="58"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="72"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="55" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="4"/>
@@ -2454,16 +2553,16 @@
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="58"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="72"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="69"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="17"/>
@@ -2473,16 +2572,16 @@
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="58"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="72"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="55" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="4"/>
@@ -2494,16 +2593,16 @@
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="58"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="72"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="69"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="17"/>
@@ -2513,16 +2612,16 @@
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="58"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="72"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="55" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="4"/>
@@ -2534,28 +2633,53 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="58"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="72"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
+        <v>38</v>
+      </c>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C7:C8"/>
@@ -2572,31 +2696,6 @@
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P15:Q15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2607,10 +2706,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:R30"/>
+  <dimension ref="B1:S30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14:R14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2623,134 +2722,140 @@
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="0.109375" customWidth="1"/>
-    <col min="14" max="14" width="0.109375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="18.109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" customWidth="1"/>
+    <col min="11" max="11" width="30" customWidth="1"/>
+    <col min="12" max="12" width="18.21875" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0.109375" customWidth="1"/>
+    <col min="15" max="15" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="23.6640625" customWidth="1"/>
+    <col min="19" max="19" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="88" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B3" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="76" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+    </row>
+    <row r="6" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-    </row>
-    <row r="6" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="G6" s="77" t="s">
+      <c r="G6" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="77" t="s">
+      <c r="I6" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="77" t="s">
+      <c r="J6" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="K6" s="130"/>
+      <c r="L6" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="89"/>
+    </row>
+    <row r="7" spans="2:19" ht="144" x14ac:dyDescent="0.3">
+      <c r="B7" s="56">
+        <v>1</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" s="86"/>
-    </row>
-    <row r="7" spans="2:18" ht="144" x14ac:dyDescent="0.3">
-      <c r="B7" s="70">
-        <v>1</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="R7" s="60"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="81"/>
-      <c r="C8" s="90"/>
+      <c r="S7" s="76"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="82"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G8" s="21">
         <v>1</v>
@@ -2758,28 +2863,29 @@
       <c r="H8" s="15">
         <v>1</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="I8" s="14"/>
       <c r="J8" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" s="31"/>
+        <v>90</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>113</v>
+      </c>
       <c r="L8" s="31"/>
       <c r="M8" s="31"/>
       <c r="N8" s="31"/>
       <c r="O8" s="31"/>
       <c r="P8" s="31"/>
-      <c r="Q8" s="82" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8" s="83"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="81"/>
-      <c r="C9" s="90"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="S8" s="91"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="82"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G9" s="17">
         <v>2</v>
@@ -2787,36 +2893,35 @@
       <c r="H9" s="18">
         <v>2</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>95</v>
-      </c>
+      <c r="I9" s="19"/>
       <c r="J9" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="16">
-        <v>-1</v>
-      </c>
-      <c r="M9" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="O9" s="16"/>
       <c r="P9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9" s="66"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="81"/>
-      <c r="C10" s="90"/>
+      <c r="Q9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="S9" s="70"/>
+    </row>
+    <row r="10" spans="2:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="82"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G10" s="21">
         <v>3</v>
@@ -2824,35 +2929,38 @@
       <c r="H10" s="15">
         <v>3</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>96</v>
-      </c>
+      <c r="I10" s="14"/>
       <c r="J10" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31">
+        <v>90</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31">
         <v>2010</v>
       </c>
-      <c r="N10" s="31" t="s">
+      <c r="O10" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="31" t="s">
-        <v>48</v>
-      </c>
       <c r="P10" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="82" t="b">
-        <v>1</v>
-      </c>
-      <c r="R10" s="83"/>
-    </row>
-    <row r="11" spans="2:18" ht="1.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="81"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="70"/>
+      <c r="R10" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="S10" s="91"/>
+    </row>
+    <row r="11" spans="2:19" ht="1.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="82"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="56" t="s">
+        <v>111</v>
+      </c>
       <c r="G11" s="21">
         <v>4</v>
       </c>
@@ -2861,29 +2969,30 @@
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31">
+      <c r="K11" s="14"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31">
         <v>2010</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="O11" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="31" t="s">
-        <v>48</v>
-      </c>
       <c r="P11" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="82" t="b">
+      <c r="R11" s="90" t="b">
         <v>1</v>
       </c>
-      <c r="R11" s="83"/>
-    </row>
-    <row r="12" spans="2:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="71"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="81"/>
+      <c r="S11" s="91"/>
+    </row>
+    <row r="12" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="57"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="82"/>
       <c r="G12" s="21">
         <v>5</v>
       </c>
@@ -2892,307 +3001,350 @@
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31">
+      <c r="K12" s="14"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31">
         <v>2010</v>
       </c>
-      <c r="N12" s="31" t="s">
+      <c r="O12" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="31" t="s">
-        <v>48</v>
-      </c>
       <c r="P12" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="83"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="70">
+      <c r="R12" s="90"/>
+      <c r="S12" s="91"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="56">
         <v>2</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="81"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="82"/>
       <c r="G13" s="17">
         <v>4</v>
       </c>
       <c r="H13" s="18">
-        <v>6</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>97</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I13" s="19"/>
       <c r="J13" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16">
+        <v>2010</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16">
-        <v>2010</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="R13" s="66"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
+      <c r="S13" s="70"/>
+    </row>
+    <row r="14" spans="2:19" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
       <c r="G14" s="21"/>
       <c r="H14" s="15"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="31"/>
+      <c r="K14" s="14"/>
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
       <c r="N14" s="31"/>
       <c r="O14" s="31"/>
       <c r="P14" s="31"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="83"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="91"/>
+    </row>
+    <row r="15" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
       <c r="G15" s="21"/>
       <c r="H15" s="15"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="31"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
       <c r="O15" s="31"/>
       <c r="P15" s="31"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="83"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="71"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="91"/>
+    </row>
+    <row r="16" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="57"/>
       <c r="G16" s="21"/>
       <c r="H16" s="15"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="31"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="31"/>
       <c r="M16" s="31"/>
       <c r="N16" s="31"/>
       <c r="O16" s="31"/>
       <c r="P16" s="31"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="83"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="2"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="91"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G17" s="21"/>
       <c r="H17" s="15"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="31"/>
+      <c r="K17" s="14"/>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="83"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="91"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="2"/>
       <c r="G18" s="21"/>
       <c r="H18" s="15"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="31"/>
+      <c r="K18" s="14"/>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
       <c r="O18" s="31"/>
       <c r="P18" s="31"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="83"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="70">
+      <c r="Q18" s="31"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="91"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B19" s="56">
         <v>3</v>
       </c>
-      <c r="C19" s="89"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="2"/>
       <c r="G19" s="21"/>
       <c r="H19" s="15"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="31"/>
+      <c r="K19" s="14"/>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
       <c r="P19" s="31"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="83"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="81"/>
-      <c r="C20" s="90"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="91"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B20" s="82"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="2"/>
       <c r="G20" s="21"/>
       <c r="H20" s="15"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="31"/>
+      <c r="K20" s="14"/>
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
       <c r="O20" s="31"/>
       <c r="P20" s="31"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="83"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="81"/>
-      <c r="C21" s="90"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="91"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B21" s="82"/>
+      <c r="C21" s="84"/>
       <c r="D21" s="2"/>
       <c r="G21" s="21"/>
       <c r="H21" s="15"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="31"/>
+      <c r="K21" s="14"/>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
       <c r="O21" s="31"/>
       <c r="P21" s="31"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="83"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="81"/>
-      <c r="C22" s="90"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="91"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B22" s="82"/>
+      <c r="C22" s="84"/>
       <c r="D22" s="2"/>
       <c r="G22" s="21"/>
       <c r="H22" s="15"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="31"/>
+      <c r="K22" s="14"/>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
       <c r="O22" s="31"/>
       <c r="P22" s="31"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="83"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="81"/>
-      <c r="C23" s="90"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="91"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B23" s="82"/>
+      <c r="C23" s="84"/>
       <c r="D23" s="2"/>
       <c r="G23" s="21"/>
       <c r="H23" s="15"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="31"/>
+      <c r="K23" s="14"/>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
       <c r="N23" s="31"/>
       <c r="O23" s="31"/>
       <c r="P23" s="31"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="83"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="71"/>
-      <c r="C24" s="91"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="91"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B24" s="57"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="2"/>
       <c r="G24" s="21"/>
       <c r="H24" s="15"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="31"/>
+      <c r="K24" s="14"/>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
       <c r="N24" s="31"/>
       <c r="O24" s="31"/>
       <c r="P24" s="31"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="83"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="70">
+      <c r="Q24" s="31"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="91"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B25" s="56">
         <v>4</v>
       </c>
-      <c r="C25" s="89"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="2"/>
       <c r="G25" s="21"/>
       <c r="H25" s="15"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="31"/>
+      <c r="K25" s="14"/>
       <c r="L25" s="31"/>
       <c r="M25" s="31"/>
       <c r="N25" s="31"/>
       <c r="O25" s="31"/>
       <c r="P25" s="31"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="83"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="81"/>
-      <c r="C26" s="90"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="91"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B26" s="82"/>
+      <c r="C26" s="84"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="81"/>
-      <c r="C27" s="90"/>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B27" s="82"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="81"/>
-      <c r="C28" s="90"/>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B28" s="82"/>
+      <c r="C28" s="84"/>
       <c r="D28" s="2"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="40"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="81"/>
-      <c r="C29" s="90"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="41"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="71"/>
-      <c r="C30" s="91"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="40"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B29" s="82"/>
+      <c r="C29" s="84"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="41"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B30" s="57"/>
+      <c r="C30" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="R10:S10"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
@@ -3205,35 +3357,10 @@
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="C19:C24"/>
     <mergeCell ref="B19:B24"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="G5:R5"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="G5:S5"/>
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="R7:S7"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3250,7 +3377,7 @@
   <dimension ref="B1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3267,62 +3394,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="77" t="s">
+      <c r="C4" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="D4" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="E4" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="63" t="s">
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="63"/>
+      <c r="N4" s="79"/>
     </row>
     <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="104"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="122"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="24" t="s">
         <v>25</v>
       </c>
@@ -3330,123 +3457,123 @@
         <v>26</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="119"/>
+      <c r="L5" s="97"/>
       <c r="M5" s="24" t="s">
         <v>31</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="22">
         <v>1</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="116" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>55</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>56</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="55">
+      <c r="L6" s="73">
         <v>1</v>
       </c>
-      <c r="M6" s="56"/>
-      <c r="N6" s="55">
+      <c r="M6" s="74"/>
+      <c r="N6" s="73">
         <v>1</v>
       </c>
-      <c r="O6" s="56"/>
+      <c r="O6" s="74"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="10">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="102"/>
+      <c r="C7" s="116"/>
       <c r="D7" s="28" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="J7" s="2">
         <v>-1</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="55">
+      <c r="L7" s="73">
         <v>0</v>
       </c>
-      <c r="M7" s="56"/>
-      <c r="N7" s="55">
+      <c r="M7" s="74"/>
+      <c r="N7" s="73">
         <v>0</v>
       </c>
-      <c r="O7" s="56"/>
+      <c r="O7" s="74"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="10">
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="102"/>
+      <c r="C8" s="116"/>
       <c r="D8" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="J8" s="12">
         <v>100</v>
@@ -3466,7 +3593,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="102"/>
+      <c r="C9" s="116"/>
       <c r="D9" s="28" t="s">
         <v>35</v>
       </c>
@@ -3488,10 +3615,10 @@
       <c r="J9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="125" t="s">
+      <c r="K9" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="126"/>
+      <c r="L9" s="104"/>
       <c r="M9" s="10" t="s">
         <v>35</v>
       </c>
@@ -3504,26 +3631,26 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="102"/>
+      <c r="C10" s="116"/>
       <c r="D10" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="120" t="s">
+      <c r="K10" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="121"/>
+      <c r="L10" s="99"/>
       <c r="M10" s="5" t="s">
         <v>34</v>
       </c>
@@ -3536,31 +3663,31 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" s="9">
         <v>-1</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="120" t="s">
+      <c r="K11" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="121"/>
+      <c r="L11" s="99"/>
       <c r="M11" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
@@ -3568,26 +3695,26 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="102"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="120" t="s">
+      <c r="K12" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="121"/>
+      <c r="L12" s="99"/>
       <c r="M12" s="5" t="s">
         <v>34</v>
       </c>
@@ -3600,12 +3727,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="117"/>
       <c r="D13" s="29" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="23" t="s">
@@ -3616,15 +3743,15 @@
       <c r="J13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="116" t="s">
+      <c r="K13" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="117"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="5" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -3644,7 +3771,7 @@
     </row>
     <row r="15" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
@@ -3654,102 +3781,102 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="36" t="s">
+      <c r="H17" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="95" t="s">
+      <c r="I17" s="110"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="96"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="95" t="s">
+      <c r="N17" s="110"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="109"/>
+    </row>
+    <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="123" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="N17" s="96"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="98"/>
-    </row>
-    <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="110" t="s">
+      <c r="D18" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="94" t="s">
+      <c r="E18" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="94" t="s">
+      <c r="F18" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="93" t="s">
+      <c r="G18" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="115" t="s">
+      <c r="H18" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="111" t="s">
-        <v>71</v>
-      </c>
       <c r="I18" s="112"/>
-      <c r="J18" s="94" t="s">
+      <c r="J18" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="94" t="s">
+      <c r="L18" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="M18" s="99" t="s">
-        <v>71</v>
-      </c>
-      <c r="N18" s="94" t="s">
+      <c r="M18" s="126" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="O18" s="94" t="s">
+      <c r="P18" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="P18" s="93" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="109"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="93"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="125"/>
       <c r="G19" s="115"/>
       <c r="H19" s="113"/>
       <c r="I19" s="114"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="93"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="125"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="35">
         <v>7</v>
@@ -3762,10 +3889,10 @@
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="43"/>
-      <c r="H20" s="107" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="108"/>
+      <c r="H20" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="122"/>
       <c r="J20" s="2">
         <v>0</v>
       </c>
@@ -3776,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N20" s="2">
         <v>5</v>
@@ -3793,6 +3920,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="K18:K19"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="M4:N4"/>
@@ -3807,32 +3958,8 @@
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:O6"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="K18:K19"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3841,15 +3968,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058284A30843C9F43BD758DDD8294D484" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d50638930d08c51b5585735b2be047e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fed1744a-f275-4023-9290-77fd546fd730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4acb07121b76573bb3c966f3dcb1b903" ns2:_="">
     <xsd:import namespace="fed1744a-f275-4023-9290-77fd546fd730"/>
@@ -3993,6 +4111,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4000,14 +4127,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EFF49E-866D-4BFD-B7FD-9BB436667B53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4025,6 +4144,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
   <ds:schemaRefs>
